--- a/source/MultiSequenceLearning_Team_MSL/Test.xlsx
+++ b/source/MultiSequenceLearning_Team_MSL/Test.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE_Project\Project\neocortexapi_Team_MSL\source\MultiSequenceLearning_Team_MSL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84014129-E8C2-4386-9803-C0415C887758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1067F32-DA9F-4060-8C7E-0313031B1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Input Sequences</t>
   </si>
@@ -34,6 +37,15 @@
   </si>
   <si>
     <t>Final Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Final Accuracy: 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Final Accuracy: 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Final Accuracy: 0%</t>
   </si>
 </sst>
 </file>
@@ -89,10 +101,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,17 +389,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -452,10 +466,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -472,21 +486,362 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D24C19-206F-44E2-ABF8-5C92803197AD}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94405A-0373-482E-9BAB-92C97FADCB40}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAFA264-0DD0-49A4-A2E9-E32C8B5A0B85}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
